--- a/biology/Botanique/Spergularia/Spergularia.xlsx
+++ b/biology/Botanique/Spergularia/Spergularia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Spergularia (les spergulaires : nom vernaculaire) est un genre de plantes de la famille des Caryophyllaceae. 
 </t>
@@ -512,6 +524,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -537,7 +551,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les plantes du genre Spergularia sont herbacées, à port étalé et tiges grêles. Les feuilles sont opposées.
 </t>
@@ -568,18 +584,20 @@
           <t>Espèces en France</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Spergulaire de Boccone : Spergularia bocconei[1]
-Spergulaire de Heldreich : Spergularia heldreichii[1]
-Spergulaire marine : Spergularia marina[2].
-Spergulaire à grosses racines : Spergularia macrorrhiza[3]
-Spergulaire marginée : Spergularia media[1]
-Spergulaire pourpre : Spergularia purpurea[4].
-Spergulaire rouge : Spergularia rubra[1],[5].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Spergulaire de Boccone : Spergularia bocconei
+Spergulaire de Heldreich : Spergularia heldreichii
+Spergulaire marine : Spergularia marina.
+Spergulaire à grosses racines : Spergularia macrorrhiza
+Spergulaire marginée : Spergularia media
+Spergulaire pourpre : Spergularia purpurea.
+Spergulaire rouge : Spergularia rubra,.
 Spergulaire des rochers : Spergularia rupicola
-Spergulaire du sel : Spergularia salina[1]
-Spégulaire de Tanger : Spergularia tangerina[1]</t>
+Spergulaire du sel : Spergularia salina
+Spégulaire de Tanger : Spergularia tangerina</t>
         </is>
       </c>
     </row>
@@ -607,9 +625,11 @@
           <t>Liste complète d'espèces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le genre compte environ 175 espèces dans le monde[6].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre compte environ 175 espèces dans le monde.
 Liste partielle d'espèces de Spergularia
 Spergularia aberrans
 Spergularia andina
